--- a/bubble.xlsx
+++ b/bubble.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="straight" sheetId="1" r:id="rId1"/>
+    <sheet name="reverse" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>byte</t>
   </si>
@@ -357,47 +358,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
         <v>50</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>500</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>5000</v>
       </c>
-      <c r="E1">
-        <v>50000</v>
-      </c>
-      <c r="F1">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.00025025</v>
+      </c>
+      <c r="D2">
+        <v>0.09900824999999999</v>
+      </c>
+      <c r="E2">
+        <v>12.41506825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.00025</v>
+      </c>
+      <c r="D3">
+        <v>0.106509</v>
+      </c>
+      <c r="E3">
+        <v>13.8311645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.00050025</v>
+      </c>
+      <c r="D4">
+        <v>0.112527</v>
+      </c>
+      <c r="E4">
+        <v>14.331468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.0004994999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.1207445</v>
+      </c>
+      <c r="E5">
+        <v>14.73926775</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>50</v>
+      </c>
+      <c r="D1">
+        <v>500</v>
+      </c>
+      <c r="E1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.0005</v>
+      </c>
+      <c r="D2">
+        <v>0.181765</v>
+      </c>
+      <c r="E2">
+        <v>18.21755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.00050025</v>
+      </c>
+      <c r="D3">
+        <v>0.163523</v>
+      </c>
+      <c r="E3">
+        <v>19.9934705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.00025025</v>
+      </c>
+      <c r="D4">
+        <v>0.17674725</v>
+      </c>
+      <c r="E4">
+        <v>23.44877625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.00050025</v>
+      </c>
+      <c r="D5">
+        <v>0.17850525</v>
+      </c>
+      <c r="E5">
+        <v>20.73078375</v>
       </c>
     </row>
   </sheetData>
